--- a/excel/raideur_3rondelles_mesh1.xlsx
+++ b/excel/raideur_3rondelles_mesh1.xlsx
@@ -1034,6 +1034,41 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21821540664060349"/>
+                  <c:y val="0.19227970679089496"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 2028.6x </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>xyToExcel!$A:$A</c:f>
@@ -1968,11 +2003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92379392"/>
-        <c:axId val="126331904"/>
+        <c:axId val="106960384"/>
+        <c:axId val="106962304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92379392"/>
+        <c:axId val="106960384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +2024,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement</a:t>
+                  <a:t>Déplacement (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2001,14 +2036,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126331904"/>
+        <c:crossAx val="106962304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126331904"/>
+        <c:axId val="106962304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2024,7 +2060,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Force</a:t>
+                  <a:t>Force (N)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2036,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92379392"/>
+        <c:crossAx val="106960384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2045,6 +2081,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2059,12 +2100,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -2378,7 +2419,7 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C151"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
